--- a/excel_test.xlsx
+++ b/excel_test.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11480"/>
+    <workbookView windowWidth="25600" windowHeight="12080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dungeons" sheetId="2" r:id="rId1"/>
     <sheet name="actors" sheetId="3" r:id="rId2"/>
+    <sheet name="werewolf_appearances" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -88,6 +89,95 @@
   </si>
   <si>
     <t>身材娇小，身体呈现出淡黄色的色调，四肢纤细而灵活。八只眼睛闪烁着微弱的光芒，能够在黑暗中看清一切。背部有着精致的蛛网纹理，腹部则有一对小巧的毒腺，随时准备释放剧毒。整体外观给人一种既美丽又危险的感觉。</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>body_type</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>银白与赤红交织的白羊面具，眉处突出两根弯曲的公羊角。</t>
+  </si>
+  <si>
+    <t>身材高大，披着金丝绣纹的华丽长袍，气势如王者般威严</t>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>深棕与铜金配色的金牛面具，厚重的面具两侧有短而粗的牛角。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">娇小灵巧，身着轻盈薄纱，举手投足间透出活泼与机敏
+</t>
+  </si>
+  <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>一半冷银一半暖金的双子面具，面具中央以细线分割成两张对称的脸。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修长优雅，穿着贴身礼服，举止间散发出高贵气质
+</t>
+  </si>
+  <si>
+    <t>海蓝与银白的贝壳状的巨蟹面具，面具两侧伸出类似蟹钳的装饰。</t>
+  </si>
+  <si>
+    <t>矮壮结实，身披厚重皮革，给人稳重可靠的感觉</t>
+  </si>
+  <si>
+    <t>金色的狮子面具，外缘环绕着仿佛火焰的鬃毛。</t>
+  </si>
+  <si>
+    <t>瘦削挺拔，身穿深色长衣，气息冷峻而神秘</t>
+  </si>
+  <si>
+    <t>纯白的线条简洁优雅的处女面具，额头处雕刻麦穗与花瓣。</t>
+  </si>
+  <si>
+    <t>圆润柔和，衣着温暖柔软，平易近人如春风拂面</t>
+  </si>
+  <si>
+    <t>蓝金色对称的天秤面具，额头中央悬浮着一座小型天平。</t>
+  </si>
+  <si>
+    <t>俊美挺拔，着装考究华美，自信光彩令人难以忽视</t>
+  </si>
+  <si>
+    <t>金色的天蝎面具，上面有一只立体的蝎子盘踞在额头上，尾针向上弯起。</t>
+  </si>
+  <si>
+    <t>粗犷健壮，穿着破旧的战斗服，透出野性与力量感</t>
+  </si>
+  <si>
+    <t>深蓝与银灰的射手面具，右侧延伸出弓箭造型的纹饰。</t>
+  </si>
+  <si>
+    <t>消瘦苍白，披着旧袍斗篷，阴冷气息令人不安</t>
+  </si>
+  <si>
+    <t>乌黑与岩灰的摩羯面具，头顶有如山羊般的卷角。</t>
+  </si>
+  <si>
+    <t>中等身形，衣着朴素简洁，平凡中透着难测的沉稳</t>
+  </si>
+  <si>
+    <t>银蓝半透明的水瓶面具，形似流水凝结。</t>
+  </si>
+  <si>
+    <t>轻盈灵动，身披飘逸长衣，行走间宛如风影掠过</t>
+  </si>
+  <si>
+    <t>梦幻的海蓝与紫粉渐变的双鱼面具，面具左右两侧各有一条鱼围绕着眼眶。</t>
+  </si>
+  <si>
+    <t>魁梧威严，披着厚重铠甲与披风，气场如山般压迫</t>
   </si>
 </sst>
 </file>
@@ -715,9 +805,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1048,52 +1141,53 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="6" max="6" width="13.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="208" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -1120,44 +1214,179 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="26" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="195" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="17.4545454545455" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.0909090909091" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.72727272727273" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" ht="195" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="53" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="52" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="52" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="52" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" ht="39" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" ht="39" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="39" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="52" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" ht="39" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="39" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" ht="39" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" ht="52" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_test.xlsx
+++ b/excel_test.xlsx
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/excel_test.xlsx
+++ b/excel_test.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -97,87 +97,77 @@
     <t>body_type</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>银白与赤红交织的白羊面具，眉处突出两根弯曲的公羊角。</t>
   </si>
   <si>
-    <t>身材高大，披着金丝绣纹的华丽长袍，气势如王者般威严</t>
-  </si>
-  <si>
-    <t>男性</t>
+    <t>身材高大，披着金丝绣纹的华丽长袍，气势如王者般威严的男性</t>
   </si>
   <si>
     <t>深棕与铜金配色的金牛面具，厚重的面具两侧有短而粗的牛角。</t>
   </si>
   <si>
-    <t xml:space="preserve">娇小灵巧，身着轻盈薄纱，举手投足间透出活泼与机敏
-</t>
-  </si>
-  <si>
-    <t>女性</t>
+    <t>娇小灵巧，身着轻盈薄纱，举手投足间透出活泼与机敏
+的女性</t>
   </si>
   <si>
     <t>一半冷银一半暖金的双子面具，面具中央以细线分割成两张对称的脸。</t>
   </si>
   <si>
-    <t xml:space="preserve">修长优雅，穿着贴身礼服，举止间散发出高贵气质
-</t>
+    <t>修长优雅，穿着贴身礼服，举止间散发出高贵气质的女性</t>
   </si>
   <si>
     <t>海蓝与银白的贝壳状的巨蟹面具，面具两侧伸出类似蟹钳的装饰。</t>
   </si>
   <si>
-    <t>矮壮结实，身披厚重皮革，给人稳重可靠的感觉</t>
+    <t>矮壮结实，身披厚重皮革，给人稳重可靠的感觉的男性</t>
   </si>
   <si>
     <t>金色的狮子面具，外缘环绕着仿佛火焰的鬃毛。</t>
   </si>
   <si>
-    <t>瘦削挺拔，身穿深色长衣，气息冷峻而神秘</t>
+    <t>瘦削挺拔，身穿深色长衣，气息冷峻而神秘的男性</t>
   </si>
   <si>
     <t>纯白的线条简洁优雅的处女面具，额头处雕刻麦穗与花瓣。</t>
   </si>
   <si>
-    <t>圆润柔和，衣着温暖柔软，平易近人如春风拂面</t>
+    <t>圆润柔和，衣着温暖柔软，平易近人如春风拂面的女性</t>
   </si>
   <si>
     <t>蓝金色对称的天秤面具，额头中央悬浮着一座小型天平。</t>
   </si>
   <si>
-    <t>俊美挺拔，着装考究华美，自信光彩令人难以忽视</t>
+    <t>俊美挺拔，着装考究华美，自信光彩令人难以忽视的男性</t>
   </si>
   <si>
     <t>金色的天蝎面具，上面有一只立体的蝎子盘踞在额头上，尾针向上弯起。</t>
   </si>
   <si>
-    <t>粗犷健壮，穿着破旧的战斗服，透出野性与力量感</t>
+    <t>粗犷健壮，穿着破旧的战斗服，透出野性与力量感的男性</t>
   </si>
   <si>
     <t>深蓝与银灰的射手面具，右侧延伸出弓箭造型的纹饰。</t>
   </si>
   <si>
-    <t>消瘦苍白，披着旧袍斗篷，阴冷气息令人不安</t>
+    <t>消瘦苍白，披着旧袍斗篷，阴冷气息令人不安的男性</t>
   </si>
   <si>
     <t>乌黑与岩灰的摩羯面具，头顶有如山羊般的卷角。</t>
   </si>
   <si>
-    <t>中等身形，衣着朴素简洁，平凡中透着难测的沉稳</t>
+    <t>中等身形，衣着朴素简洁，平凡中透着难测的沉稳的男性</t>
   </si>
   <si>
     <t>银蓝半透明的水瓶面具，形似流水凝结。</t>
   </si>
   <si>
-    <t>轻盈灵动，身披飘逸长衣，行走间宛如风影掠过</t>
+    <t>轻盈灵动，身披飘逸长衣，行走间宛如风影掠过的女性</t>
   </si>
   <si>
     <t>梦幻的海蓝与紫粉渐变的双鱼面具，面具左右两侧各有一条鱼围绕着眼眶。</t>
   </si>
   <si>
-    <t>魁梧威严，披着厚重铠甲与披风，气场如山般压迫</t>
+    <t>魁梧威严，披着厚重铠甲与披风，气场如山般压迫的男性</t>
   </si>
 </sst>
 </file>
@@ -1262,130 +1252,121 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.4545454545455" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.0909090909091" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" ht="53" customHeight="1" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" ht="53" customHeight="1" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" ht="52" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="3" ht="52" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" ht="52" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="52" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" ht="39" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="39" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="52" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" ht="39" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" ht="52" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="39" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="52" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" ht="39" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" ht="39" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" ht="52" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
